--- a/data_impute_project/imputation_comparison/combination_3_ABCDF/C/15/seed5_imputed_comparison.xlsx
+++ b/data_impute_project/imputation_comparison/combination_3_ABCDF/C/15/seed5_imputed_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>RF</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KNN_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SVM_Outliers_MAD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RF_Outliers_MAD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,6 +492,15 @@
       </c>
       <c r="E2" t="n">
         <v>-14.72270000000002</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
